--- a/Code/Results/Cases/Case_9_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_20/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.52705187700989</v>
+        <v>13.50386432313586</v>
       </c>
       <c r="C2">
-        <v>8.6685837040678</v>
+        <v>8.731821155783864</v>
       </c>
       <c r="D2">
-        <v>8.51186988941013</v>
+        <v>8.640148906212721</v>
       </c>
       <c r="E2">
-        <v>12.10402620581432</v>
+        <v>12.19353602078415</v>
       </c>
       <c r="F2">
-        <v>21.8744313516842</v>
+        <v>21.40286241499193</v>
       </c>
       <c r="G2">
-        <v>22.84769662153666</v>
+        <v>21.52088936092925</v>
       </c>
       <c r="H2">
-        <v>1.908576451519974</v>
+        <v>1.854671303915484</v>
       </c>
       <c r="I2">
-        <v>3.064858157568526</v>
+        <v>2.92630697589964</v>
       </c>
       <c r="J2">
-        <v>9.385249108854428</v>
+        <v>9.517414548536431</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.008423794013257</v>
+        <v>11.73343337717922</v>
       </c>
       <c r="M2">
-        <v>12.23144349804712</v>
+        <v>9.07951188023857</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.023241776583995</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.32760059514553</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>15.23319435199895</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>14.83927245075622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.66763233487368</v>
+        <v>12.67582109224211</v>
       </c>
       <c r="C3">
-        <v>8.316503852418627</v>
+        <v>8.25840367309419</v>
       </c>
       <c r="D3">
-        <v>8.072076837461765</v>
+        <v>8.188994307998017</v>
       </c>
       <c r="E3">
-        <v>11.52610402802412</v>
+        <v>11.61660794579896</v>
       </c>
       <c r="F3">
-        <v>21.60235109793327</v>
+        <v>21.17706650204426</v>
       </c>
       <c r="G3">
-        <v>22.72287291512452</v>
+        <v>21.50925022408795</v>
       </c>
       <c r="H3">
-        <v>2.11185138654293</v>
+        <v>2.049718811547784</v>
       </c>
       <c r="I3">
-        <v>3.206414174943979</v>
+        <v>3.051155063687422</v>
       </c>
       <c r="J3">
-        <v>9.439294337748766</v>
+        <v>9.54789401545507</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.81393569630884</v>
+        <v>11.91269862213616</v>
       </c>
       <c r="M3">
-        <v>11.56784351912616</v>
+        <v>9.197946464565851</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.83454235665575</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.64770943774993</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>15.27534359839265</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>14.90802133446009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.10731012669487</v>
+        <v>12.13634042486226</v>
       </c>
       <c r="C4">
-        <v>8.095941412680578</v>
+        <v>7.959670425257745</v>
       </c>
       <c r="D4">
-        <v>7.791065490592475</v>
+        <v>7.900970627272969</v>
       </c>
       <c r="E4">
-        <v>11.15653832061667</v>
+        <v>11.24800451015703</v>
       </c>
       <c r="F4">
-        <v>21.44018659650504</v>
+        <v>21.04240398017839</v>
       </c>
       <c r="G4">
-        <v>22.65644283535828</v>
+        <v>21.51345543671895</v>
       </c>
       <c r="H4">
-        <v>2.241473962779616</v>
+        <v>2.174139307819891</v>
       </c>
       <c r="I4">
-        <v>3.297216110073447</v>
+        <v>3.131557643680108</v>
       </c>
       <c r="J4">
-        <v>9.47498337325916</v>
+        <v>9.567575032596608</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.691016300293429</v>
+        <v>12.02627477400685</v>
       </c>
       <c r="M4">
-        <v>11.14048678838482</v>
+        <v>9.286556661108756</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.715356015658271</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.2098970396945</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15.30660625911004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>14.95454158981996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.86779300120667</v>
+        <v>11.90585099254631</v>
       </c>
       <c r="C5">
-        <v>8.014983696795724</v>
+        <v>7.846614742654062</v>
       </c>
       <c r="D5">
-        <v>7.676269733505971</v>
+        <v>7.783227821445772</v>
       </c>
       <c r="E5">
-        <v>11.00327598649921</v>
+        <v>11.0951958189103</v>
       </c>
       <c r="F5">
-        <v>21.36750584790002</v>
+        <v>20.98097762298135</v>
       </c>
       <c r="G5">
-        <v>22.61879582422161</v>
+        <v>21.50526855847722</v>
       </c>
       <c r="H5">
-        <v>2.295711948265404</v>
+        <v>2.226209293266133</v>
       </c>
       <c r="I5">
-        <v>3.337920223464173</v>
+        <v>3.168470163910994</v>
       </c>
       <c r="J5">
-        <v>9.488017498210221</v>
+        <v>9.57377106705958</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.639783691302561</v>
+        <v>12.0685082122837</v>
       </c>
       <c r="M5">
-        <v>10.96371992094625</v>
+        <v>9.324284875293863</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.665701399166803</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>11.028697347718</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15.31533840520199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>14.96946580666459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.82388680456087</v>
+        <v>11.86361741404283</v>
       </c>
       <c r="C6">
-        <v>8.013688369128506</v>
+        <v>7.840701022320816</v>
       </c>
       <c r="D6">
-        <v>7.659960542230795</v>
+        <v>7.766314556989322</v>
       </c>
       <c r="E6">
-        <v>10.97873585601063</v>
+        <v>11.07069272790384</v>
       </c>
       <c r="F6">
-        <v>21.34590268611146</v>
+        <v>20.96159498226859</v>
       </c>
       <c r="G6">
-        <v>22.5967104662464</v>
+        <v>21.48864700463325</v>
       </c>
       <c r="H6">
-        <v>2.305026149090478</v>
+        <v>2.235149914443712</v>
       </c>
       <c r="I6">
-        <v>3.348228158471441</v>
+        <v>3.178783518818398</v>
       </c>
       <c r="J6">
-        <v>9.487620349975233</v>
+        <v>9.572292725751053</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.630860393251393</v>
+        <v>12.06956573165898</v>
       </c>
       <c r="M6">
-        <v>10.93688533036595</v>
+        <v>9.327980797095506</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.657058218852463</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>11.00103506061928</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15.31036543648992</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>14.96580133749846</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.09440533213851</v>
+        <v>12.12421598008298</v>
       </c>
       <c r="C7">
-        <v>8.12778707132663</v>
+        <v>7.990632551156512</v>
       </c>
       <c r="D7">
-        <v>7.797322997575261</v>
+        <v>7.911055481069298</v>
       </c>
       <c r="E7">
-        <v>11.15749940497668</v>
+        <v>11.25037606103363</v>
       </c>
       <c r="F7">
-        <v>21.41309661245222</v>
+        <v>21.00259007032486</v>
       </c>
       <c r="G7">
-        <v>22.61240310000687</v>
+        <v>21.53454719235531</v>
       </c>
       <c r="H7">
-        <v>2.242826185316575</v>
+        <v>2.175904280919852</v>
       </c>
       <c r="I7">
-        <v>3.306987074604609</v>
+        <v>3.143415885173029</v>
       </c>
       <c r="J7">
-        <v>9.46807557523382</v>
+        <v>9.530941929745227</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.689343632131155</v>
+        <v>12.00511327535975</v>
       </c>
       <c r="M7">
-        <v>11.14567208547159</v>
+        <v>9.275917335310103</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.71314991785953</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.21402624359758</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15.28899492897938</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>14.92867051840095</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.22561946329097</v>
+        <v>13.21425005627571</v>
       </c>
       <c r="C8">
-        <v>8.589966064326502</v>
+        <v>8.606805866680245</v>
       </c>
       <c r="D8">
-        <v>8.372219886080968</v>
+        <v>8.509255635960443</v>
       </c>
       <c r="E8">
-        <v>11.91165979891949</v>
+        <v>12.00614368761761</v>
       </c>
       <c r="F8">
-        <v>21.74579697408873</v>
+        <v>21.24655880076668</v>
       </c>
       <c r="G8">
-        <v>22.74563019078337</v>
+        <v>21.67044435280075</v>
       </c>
       <c r="H8">
-        <v>1.978449329200112</v>
+        <v>1.923144754139248</v>
       </c>
       <c r="I8">
-        <v>3.124627036719825</v>
+        <v>2.983907979840054</v>
       </c>
       <c r="J8">
-        <v>9.39405506237839</v>
+        <v>9.421781938342919</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.940879869324065</v>
+        <v>11.75850098684423</v>
       </c>
       <c r="M8">
-        <v>12.01624518708257</v>
+        <v>9.09224707173451</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.955848844160406</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.10427857310783</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15.2232947827738</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>14.80979028044086</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.20081757747432</v>
+        <v>15.11895660562386</v>
       </c>
       <c r="C9">
-        <v>9.403248905042583</v>
+        <v>9.697370052862148</v>
       </c>
       <c r="D9">
-        <v>9.396276908806691</v>
+        <v>9.563261049947091</v>
       </c>
       <c r="E9">
-        <v>13.26435505320906</v>
+        <v>13.35893438623993</v>
       </c>
       <c r="F9">
-        <v>22.48103846287907</v>
+        <v>21.85065610455314</v>
       </c>
       <c r="G9">
-        <v>23.16758200025046</v>
+        <v>21.87345539566148</v>
       </c>
       <c r="H9">
-        <v>1.623085732547063</v>
+        <v>1.657549027659625</v>
       </c>
       <c r="I9">
-        <v>2.782399392769686</v>
+        <v>2.681060570449838</v>
       </c>
       <c r="J9">
-        <v>9.281978290975577</v>
+        <v>9.332850395253384</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.406446033594717</v>
+        <v>11.34844543966953</v>
       </c>
       <c r="M9">
-        <v>13.54999167787329</v>
+        <v>8.890714533401248</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.407640769103796</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.67576206649523</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15.17059941290285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>14.6757605929777</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.48983830274907</v>
+        <v>16.36692780078819</v>
       </c>
       <c r="C10">
-        <v>9.98447397147654</v>
+        <v>10.44046265602706</v>
       </c>
       <c r="D10">
-        <v>9.997756990863211</v>
+        <v>10.20256839685091</v>
       </c>
       <c r="E10">
-        <v>13.94864786693704</v>
+        <v>14.05083049028523</v>
       </c>
       <c r="F10">
-        <v>22.86861507511269</v>
+        <v>22.07670614188764</v>
       </c>
       <c r="G10">
-        <v>23.33706405061496</v>
+        <v>22.27636524034494</v>
       </c>
       <c r="H10">
-        <v>1.936876912477413</v>
+        <v>1.955786645297259</v>
       </c>
       <c r="I10">
-        <v>2.55913211456638</v>
+        <v>2.49424822486427</v>
       </c>
       <c r="J10">
-        <v>9.181506289936648</v>
+        <v>9.086266886604283</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.619229439775283</v>
+        <v>11.01040658265934</v>
       </c>
       <c r="M10">
-        <v>14.57616700468781</v>
+        <v>8.757841682690295</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.609044007902183</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.7211944223184</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15.08150235889045</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>14.47897633936422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.01836395772447</v>
+        <v>16.90470377960359</v>
       </c>
       <c r="C11">
-        <v>10.2478245985181</v>
+        <v>10.66183429944345</v>
       </c>
       <c r="D11">
-        <v>9.452330257147171</v>
+        <v>9.685906108910759</v>
       </c>
       <c r="E11">
-        <v>12.28013661171987</v>
+        <v>12.38946022304008</v>
       </c>
       <c r="F11">
-        <v>21.62380848360831</v>
+        <v>20.73431842375144</v>
       </c>
       <c r="G11">
-        <v>21.85483617577</v>
+        <v>21.647069469316</v>
       </c>
       <c r="H11">
-        <v>2.828644374965727</v>
+        <v>2.836366886420032</v>
       </c>
       <c r="I11">
-        <v>2.51275912147479</v>
+        <v>2.561430369244871</v>
       </c>
       <c r="J11">
-        <v>8.886507275609784</v>
+        <v>8.568864773561581</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.823342312902371</v>
+        <v>10.61307800667127</v>
       </c>
       <c r="M11">
-        <v>15.00885827769178</v>
+        <v>8.354506417134127</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.809237164909645</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.1371853107302</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14.40352423398193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>13.74842980208685</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.21533033774625</v>
+        <v>17.11672503847129</v>
       </c>
       <c r="C12">
-        <v>10.30815647158638</v>
+        <v>10.65742110040876</v>
       </c>
       <c r="D12">
-        <v>8.850361339135665</v>
+        <v>9.088347279430122</v>
       </c>
       <c r="E12">
-        <v>10.75434227253448</v>
+        <v>10.86195458877929</v>
       </c>
       <c r="F12">
-        <v>20.5252804347499</v>
+        <v>19.63781703534851</v>
       </c>
       <c r="G12">
-        <v>20.6268382313618</v>
+        <v>20.83774854122757</v>
       </c>
       <c r="H12">
-        <v>4.107578549991669</v>
+        <v>4.111796508668489</v>
       </c>
       <c r="I12">
-        <v>2.504802395137425</v>
+        <v>2.571137571118738</v>
       </c>
       <c r="J12">
-        <v>8.671349202521435</v>
+        <v>8.329154379934533</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.193582467889686</v>
+        <v>10.4037311076286</v>
       </c>
       <c r="M12">
-        <v>15.15650066724131</v>
+        <v>8.081107357857928</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.180910876289881</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.26865226188767</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13.87982270918512</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>13.2395293174104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.16454408573448</v>
+        <v>17.08646942325972</v>
       </c>
       <c r="C13">
-        <v>10.25994039713856</v>
+        <v>10.52826436344252</v>
       </c>
       <c r="D13">
-        <v>8.161480798717138</v>
+        <v>8.376974036970939</v>
       </c>
       <c r="E13">
-        <v>9.237409843935552</v>
+        <v>9.333887751525387</v>
       </c>
       <c r="F13">
-        <v>19.43067013561637</v>
+        <v>18.64994627579436</v>
       </c>
       <c r="G13">
-        <v>19.45413943785824</v>
+        <v>19.61590279802696</v>
       </c>
       <c r="H13">
-        <v>5.444935460815257</v>
+        <v>5.448807504023833</v>
       </c>
       <c r="I13">
-        <v>2.526421769761256</v>
+        <v>2.546014522128031</v>
       </c>
       <c r="J13">
-        <v>8.494831804182317</v>
+        <v>8.260857611581724</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.674296818565498</v>
+        <v>10.29356790305734</v>
       </c>
       <c r="M13">
-        <v>15.10733699693595</v>
+        <v>7.88924742888524</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.668059711426955</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.20330118039856</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13.41863489724987</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>12.86168251494494</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.01415713893901</v>
+        <v>16.95329606839553</v>
       </c>
       <c r="C14">
-        <v>10.1853105171786</v>
+        <v>10.38869145676993</v>
       </c>
       <c r="D14">
-        <v>7.633748572921449</v>
+        <v>7.821656434417281</v>
       </c>
       <c r="E14">
-        <v>8.199665315115338</v>
+        <v>8.284941018732649</v>
       </c>
       <c r="F14">
-        <v>18.66568209355502</v>
+        <v>18.00165744844303</v>
       </c>
       <c r="G14">
-        <v>18.65754237561804</v>
+        <v>18.5929777664592</v>
       </c>
       <c r="H14">
-        <v>6.470630288933172</v>
+        <v>6.467212486448043</v>
       </c>
       <c r="I14">
-        <v>2.566694153306389</v>
+        <v>2.51465571115251</v>
       </c>
       <c r="J14">
-        <v>8.389119919078968</v>
+        <v>8.269690866676397</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.394996662028069</v>
+        <v>10.25258379924537</v>
       </c>
       <c r="M14">
-        <v>14.98522111075485</v>
+        <v>7.794312242303851</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.395058317966848</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.06950235419929</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13.1253675818629</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>12.65177599080561</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.92081591533688</v>
+        <v>16.86554101347103</v>
       </c>
       <c r="C15">
-        <v>10.15494544564186</v>
+        <v>10.33884310825731</v>
       </c>
       <c r="D15">
-        <v>7.488122398208012</v>
+        <v>7.664274993765761</v>
       </c>
       <c r="E15">
-        <v>7.946603404388116</v>
+        <v>8.02819724453836</v>
       </c>
       <c r="F15">
-        <v>18.47383899233429</v>
+        <v>17.85580452576646</v>
       </c>
       <c r="G15">
-        <v>18.46442148585975</v>
+        <v>18.26905645486879</v>
       </c>
       <c r="H15">
-        <v>6.709175475023709</v>
+        <v>6.705410689683091</v>
       </c>
       <c r="I15">
-        <v>2.590185137353982</v>
+        <v>2.527486710621678</v>
       </c>
       <c r="J15">
-        <v>8.369551720929648</v>
+        <v>8.295393534721409</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.339201052580917</v>
+        <v>10.25459926826991</v>
       </c>
       <c r="M15">
-        <v>14.91520989878599</v>
+        <v>7.784836628330259</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.341475681232454</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.99647396549183</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13.06240723971608</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>12.61978269901931</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.39824572090528</v>
+        <v>16.35504490010394</v>
       </c>
       <c r="C16">
-        <v>9.938008192544235</v>
+        <v>10.08587976233721</v>
       </c>
       <c r="D16">
-        <v>7.335033378192988</v>
+        <v>7.470146306138462</v>
       </c>
       <c r="E16">
-        <v>7.88400300618379</v>
+        <v>7.958668653535637</v>
       </c>
       <c r="F16">
-        <v>18.50351397277509</v>
+        <v>18.0298939580545</v>
       </c>
       <c r="G16">
-        <v>18.59984353862961</v>
+        <v>17.80539776511137</v>
       </c>
       <c r="H16">
-        <v>6.498457001307808</v>
+        <v>6.492067442839892</v>
       </c>
       <c r="I16">
-        <v>2.685297156096219</v>
+        <v>2.608443260865887</v>
       </c>
       <c r="J16">
-        <v>8.445939245979778</v>
+        <v>8.538816835671062</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.338410967015624</v>
+        <v>10.38603029220651</v>
       </c>
       <c r="M16">
-        <v>14.50532603390177</v>
+        <v>7.930490539785125</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.347101006216735</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.5856522236649</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13.18795034241588</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>12.83342806719549</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.0716113506211</v>
+        <v>16.02869780560395</v>
       </c>
       <c r="C17">
-        <v>9.811628157682346</v>
+        <v>9.964221257144276</v>
       </c>
       <c r="D17">
-        <v>7.509482894737101</v>
+        <v>7.632590302831408</v>
       </c>
       <c r="E17">
-        <v>8.387785955886878</v>
+        <v>8.462493460827403</v>
       </c>
       <c r="F17">
-        <v>18.93149641209879</v>
+        <v>18.4946753331538</v>
       </c>
       <c r="G17">
-        <v>19.12159811630194</v>
+        <v>18.06485543417508</v>
       </c>
       <c r="H17">
-        <v>5.755761005089644</v>
+        <v>5.746985393442684</v>
       </c>
       <c r="I17">
-        <v>2.737828025892046</v>
+        <v>2.653727888738115</v>
       </c>
       <c r="J17">
-        <v>8.559479006761793</v>
+        <v>8.721843531385771</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.470488055971998</v>
+        <v>10.51889640204787</v>
       </c>
       <c r="M17">
-        <v>14.25262107513219</v>
+        <v>8.081905316562752</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.480973539550368</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.33788193770057</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13.43653513193463</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>13.10011519567156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.8914567876038</v>
+        <v>15.83764070104938</v>
       </c>
       <c r="C18">
-        <v>9.726521401854798</v>
+        <v>9.923343514485484</v>
       </c>
       <c r="D18">
-        <v>7.982551352621886</v>
+        <v>8.11034198070152</v>
       </c>
       <c r="E18">
-        <v>9.504501934521075</v>
+        <v>9.582281551667473</v>
       </c>
       <c r="F18">
-        <v>19.77783344680813</v>
+        <v>19.31521030857628</v>
       </c>
       <c r="G18">
-        <v>20.07525785960146</v>
+        <v>18.85651708267702</v>
       </c>
       <c r="H18">
-        <v>4.488345522415035</v>
+        <v>4.476535847700446</v>
       </c>
       <c r="I18">
-        <v>2.747347276095716</v>
+        <v>2.658748708531961</v>
       </c>
       <c r="J18">
-        <v>8.725181132301024</v>
+        <v>8.904293117849287</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.81660147469782</v>
+        <v>10.68874731685542</v>
       </c>
       <c r="M18">
-        <v>14.10703733188894</v>
+        <v>8.272536108455832</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.825539606848554</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.20409875666057</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13.83759910851534</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>13.47748304063455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.83157932769303</v>
+        <v>15.75911092286289</v>
       </c>
       <c r="C19">
-        <v>9.739248546368859</v>
+        <v>10.01076180094099</v>
       </c>
       <c r="D19">
-        <v>8.666184162750275</v>
+        <v>8.808310650904131</v>
       </c>
       <c r="E19">
-        <v>11.09114886111739</v>
+        <v>11.17382525812071</v>
       </c>
       <c r="F19">
-        <v>20.87383892663745</v>
+        <v>20.34748969280358</v>
       </c>
       <c r="G19">
-        <v>21.25859106187385</v>
+        <v>19.91577342966377</v>
       </c>
       <c r="H19">
-        <v>2.967586638944526</v>
+        <v>2.95134164970995</v>
       </c>
       <c r="I19">
-        <v>2.740084465284597</v>
+        <v>2.653649346282027</v>
       </c>
       <c r="J19">
-        <v>8.914833012231977</v>
+        <v>9.080518289232245</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.407606499914363</v>
+        <v>10.87206855767677</v>
       </c>
       <c r="M19">
-        <v>14.07343563773917</v>
+        <v>8.477198338960612</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.412534739687421</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.1867241847241</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14.31682661080938</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>13.90725563775829</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.13834381473973</v>
+        <v>16.02606718626408</v>
       </c>
       <c r="C20">
-        <v>9.922567573925081</v>
+        <v>10.34712070626777</v>
       </c>
       <c r="D20">
-        <v>9.858294569671459</v>
+        <v>10.04048373631291</v>
       </c>
       <c r="E20">
-        <v>13.7699037098299</v>
+        <v>13.86515403721204</v>
       </c>
       <c r="F20">
-        <v>22.68334167197057</v>
+        <v>21.9839080506331</v>
       </c>
       <c r="G20">
-        <v>23.15276562389119</v>
+        <v>21.80715384509492</v>
       </c>
       <c r="H20">
-        <v>1.852297147196049</v>
+        <v>1.876604074660098</v>
       </c>
       <c r="I20">
-        <v>2.649008527918415</v>
+        <v>2.575496709832799</v>
       </c>
       <c r="J20">
-        <v>9.184260039089599</v>
+        <v>9.228499257176225</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.556810650674076</v>
+        <v>11.07690815938226</v>
       </c>
       <c r="M20">
-        <v>14.33284702152012</v>
+        <v>8.764070057741348</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.551420261600152</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.47435166137439</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15.04607645775802</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>14.50816962223666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.08709401615743</v>
+        <v>16.94479615844659</v>
       </c>
       <c r="C21">
-        <v>10.34498562372819</v>
+        <v>10.86728285816127</v>
       </c>
       <c r="D21">
-        <v>10.4434991973001</v>
+        <v>10.71961865191617</v>
       </c>
       <c r="E21">
-        <v>14.62887852806077</v>
+        <v>14.75575252875546</v>
       </c>
       <c r="F21">
-        <v>23.25450421140228</v>
+        <v>22.17218485379445</v>
       </c>
       <c r="G21">
-        <v>23.60210150892116</v>
+        <v>23.64157318971752</v>
       </c>
       <c r="H21">
-        <v>2.104304065235797</v>
+        <v>2.110477145568677</v>
       </c>
       <c r="I21">
-        <v>2.545350745837298</v>
+        <v>2.608502570329805</v>
       </c>
       <c r="J21">
-        <v>9.160011190582649</v>
+        <v>8.623532510944443</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.88372189837967</v>
+        <v>10.81032814862352</v>
       </c>
       <c r="M21">
-        <v>15.08682682043461</v>
+        <v>8.650305167630307</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.860229400454191</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.23570733205818</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15.11118736645409</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>14.30544013367809</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.68704715568273</v>
+        <v>17.52761612554957</v>
       </c>
       <c r="C22">
-        <v>10.57873055065633</v>
+        <v>11.15372583227678</v>
       </c>
       <c r="D22">
-        <v>10.75804391205548</v>
+        <v>11.09705864465402</v>
       </c>
       <c r="E22">
-        <v>15.05217211824164</v>
+        <v>15.20103065219694</v>
       </c>
       <c r="F22">
-        <v>23.57822595511115</v>
+        <v>22.23205290878704</v>
       </c>
       <c r="G22">
-        <v>23.86890956449565</v>
+        <v>24.95247613217828</v>
       </c>
       <c r="H22">
-        <v>2.25975588252567</v>
+        <v>2.254457431008936</v>
       </c>
       <c r="I22">
-        <v>2.649840699431896</v>
+        <v>2.694539204806942</v>
       </c>
       <c r="J22">
-        <v>9.141520865240459</v>
+        <v>8.272293514538715</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.038221871987577</v>
+        <v>10.63882351406797</v>
       </c>
       <c r="M22">
-        <v>15.55201512447506</v>
+        <v>8.577618857089723</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.003123324351895</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.70420499421381</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15.14554576406911</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>14.1511073064173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.37773477360474</v>
+        <v>17.22641646971003</v>
       </c>
       <c r="C23">
-        <v>10.42216894752323</v>
+        <v>10.97307636992892</v>
       </c>
       <c r="D23">
-        <v>10.58426563365228</v>
+        <v>10.88153963696993</v>
       </c>
       <c r="E23">
-        <v>14.82484538251475</v>
+        <v>14.95864985120216</v>
       </c>
       <c r="F23">
-        <v>23.43276153105007</v>
+        <v>22.25956776214664</v>
       </c>
       <c r="G23">
-        <v>23.77301433576974</v>
+        <v>24.12053719884583</v>
       </c>
       <c r="H23">
-        <v>2.177656319540537</v>
+        <v>2.179139022602798</v>
       </c>
       <c r="I23">
-        <v>2.588721451444486</v>
+        <v>2.642471709416313</v>
       </c>
       <c r="J23">
-        <v>9.159246024414774</v>
+        <v>8.50684053494812</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.957052200673358</v>
+        <v>10.74886224759473</v>
       </c>
       <c r="M23">
-        <v>15.29852240396619</v>
+        <v>8.644808999304798</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.929228010735923</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.45047933456367</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15.14676281853047</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>14.27523617411262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.1372591766007</v>
+        <v>16.02275570347582</v>
       </c>
       <c r="C24">
-        <v>9.867716280829569</v>
+        <v>10.29706342676619</v>
       </c>
       <c r="D24">
-        <v>9.913741709156989</v>
+        <v>10.09725832892026</v>
       </c>
       <c r="E24">
-        <v>13.93768199318498</v>
+        <v>14.03348646510551</v>
       </c>
       <c r="F24">
-        <v>22.84592363192463</v>
+        <v>22.13967698142978</v>
       </c>
       <c r="G24">
-        <v>23.35908503299197</v>
+        <v>21.98917193576081</v>
       </c>
       <c r="H24">
-        <v>1.858689550696399</v>
+        <v>1.883037624002074</v>
       </c>
       <c r="I24">
-        <v>2.628862510926675</v>
+        <v>2.551516311015176</v>
       </c>
       <c r="J24">
-        <v>9.219471966942161</v>
+        <v>9.264113113262864</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.640197414808431</v>
+        <v>11.12156737764533</v>
       </c>
       <c r="M24">
-        <v>14.31112658237884</v>
+        <v>8.814101984300439</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.634469919436686</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.45452044328501</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15.13317734072665</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>14.58893612679595</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.67941623343065</v>
+        <v>14.6156687719436</v>
       </c>
       <c r="C25">
-        <v>9.241638767524519</v>
+        <v>9.469707739398025</v>
       </c>
       <c r="D25">
-        <v>9.141460240100933</v>
+        <v>9.29488764258315</v>
       </c>
       <c r="E25">
-        <v>12.91673145113568</v>
+        <v>13.00895643107807</v>
       </c>
       <c r="F25">
-        <v>22.2335916315219</v>
+        <v>21.66010521878378</v>
       </c>
       <c r="G25">
-        <v>22.96800372157052</v>
+        <v>21.64367934678306</v>
       </c>
       <c r="H25">
-        <v>1.623924760635284</v>
+        <v>1.582688005477251</v>
       </c>
       <c r="I25">
-        <v>2.888888381416526</v>
+        <v>2.779655677888832</v>
       </c>
       <c r="J25">
-        <v>9.297415301575345</v>
+        <v>9.385490608612251</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.282271880400566</v>
+        <v>11.44097684896328</v>
       </c>
       <c r="M25">
-        <v>13.16459035901236</v>
+        <v>8.916056519004337</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.287848127906499</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.28118017211855</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15.14830479163177</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>14.6912435003293</v>
       </c>
     </row>
   </sheetData>
